--- a/01 DOCUEMENTOS/CENTRAL   ARCHIVO   2 0 2 3/ASIGNACIONES 2023 (1).xlsx
+++ b/01 DOCUEMENTOS/CENTRAL   ARCHIVO   2 0 2 3/ASIGNACIONES 2023 (1).xlsx
@@ -9,10 +9,11 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23790" windowHeight="11910"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23790" windowHeight="11910" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
+    <sheet name="Hoja2" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -562,7 +563,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="41">
+  <cellXfs count="42">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -629,27 +630,6 @@
     </xf>
     <xf numFmtId="0" fontId="5" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="justify" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -681,6 +661,30 @@
     <xf numFmtId="0" fontId="5" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="8" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -964,8 +968,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E37"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="F36" sqref="F36"/>
+    <sheetView topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="D34" sqref="D34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -977,13 +981,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="28.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="23" t="s">
+      <c r="A1" s="34" t="s">
         <v>70</v>
       </c>
-      <c r="B1" s="23"/>
-      <c r="C1" s="23"/>
-      <c r="D1" s="23"/>
-      <c r="E1" s="23"/>
+      <c r="B1" s="34"/>
+      <c r="C1" s="34"/>
+      <c r="D1" s="34"/>
+      <c r="E1" s="34"/>
     </row>
     <row r="2" spans="1:5" ht="36.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
@@ -1358,13 +1362,13 @@
       </c>
     </row>
     <row r="24" spans="1:5" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="24" t="s">
+      <c r="A24" s="35" t="s">
         <v>89</v>
       </c>
-      <c r="B24" s="25"/>
-      <c r="C24" s="25"/>
-      <c r="D24" s="25"/>
-      <c r="E24" s="26"/>
+      <c r="B24" s="36"/>
+      <c r="C24" s="36"/>
+      <c r="D24" s="36"/>
+      <c r="E24" s="37"/>
     </row>
     <row r="25" spans="1:5" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A25" s="8">
@@ -1459,111 +1463,111 @@
       </c>
     </row>
     <row r="31" spans="1:5" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="27" t="s">
+      <c r="A31" s="38" t="s">
         <v>90</v>
       </c>
-      <c r="B31" s="28"/>
-      <c r="C31" s="28"/>
-      <c r="D31" s="28"/>
-      <c r="E31" s="29"/>
+      <c r="B31" s="39"/>
+      <c r="C31" s="39"/>
+      <c r="D31" s="39"/>
+      <c r="E31" s="40"/>
     </row>
     <row r="32" spans="1:5" ht="39" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="30">
+      <c r="A32" s="23">
         <v>27</v>
       </c>
-      <c r="B32" s="31" t="s">
+      <c r="B32" s="24" t="s">
         <v>72</v>
       </c>
-      <c r="C32" s="32">
+      <c r="C32" s="25">
         <v>2012</v>
       </c>
-      <c r="D32" s="32" t="s">
+      <c r="D32" s="25" t="s">
         <v>73</v>
       </c>
-      <c r="E32" s="33" t="s">
+      <c r="E32" s="26" t="s">
         <v>74</v>
       </c>
     </row>
     <row r="33" spans="1:5" ht="39" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="30">
+      <c r="A33" s="23">
         <v>28</v>
       </c>
-      <c r="B33" s="31" t="s">
+      <c r="B33" s="24" t="s">
         <v>75</v>
       </c>
-      <c r="C33" s="32">
+      <c r="C33" s="25">
         <v>2020</v>
       </c>
-      <c r="D33" s="32" t="s">
+      <c r="D33" s="25" t="s">
         <v>76</v>
       </c>
-      <c r="E33" s="33" t="s">
+      <c r="E33" s="26" t="s">
         <v>77</v>
       </c>
     </row>
     <row r="34" spans="1:5" ht="39" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="30">
+      <c r="A34" s="23">
         <v>29</v>
       </c>
-      <c r="B34" s="31" t="s">
+      <c r="B34" s="24" t="s">
         <v>78</v>
       </c>
-      <c r="C34" s="33">
+      <c r="C34" s="26">
         <v>2018</v>
       </c>
-      <c r="D34" s="33" t="s">
+      <c r="D34" s="26" t="s">
         <v>79</v>
       </c>
-      <c r="E34" s="33" t="s">
+      <c r="E34" s="26" t="s">
         <v>80</v>
       </c>
     </row>
     <row r="35" spans="1:5" ht="39" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="30">
+      <c r="A35" s="23">
         <v>30</v>
       </c>
-      <c r="B35" s="34" t="s">
+      <c r="B35" s="27" t="s">
         <v>81</v>
       </c>
-      <c r="C35" s="35">
+      <c r="C35" s="28">
         <v>2019</v>
       </c>
-      <c r="D35" s="35" t="s">
+      <c r="D35" s="28" t="s">
         <v>82</v>
       </c>
-      <c r="E35" s="36" t="s">
+      <c r="E35" s="29" t="s">
         <v>83</v>
       </c>
     </row>
     <row r="36" spans="1:5" ht="39" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="30">
+      <c r="A36" s="23">
         <v>31</v>
       </c>
-      <c r="B36" s="37" t="s">
+      <c r="B36" s="30" t="s">
         <v>84</v>
       </c>
-      <c r="C36" s="38">
+      <c r="C36" s="31">
         <v>2023</v>
       </c>
-      <c r="D36" s="38" t="s">
+      <c r="D36" s="31" t="s">
         <v>85</v>
       </c>
-      <c r="E36" s="33" t="s">
+      <c r="E36" s="26" t="s">
         <v>86</v>
       </c>
     </row>
     <row r="37" spans="1:5" ht="39" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A37" s="30">
+      <c r="A37" s="23">
         <v>32</v>
       </c>
-      <c r="B37" s="31" t="s">
+      <c r="B37" s="24" t="s">
         <v>87</v>
       </c>
-      <c r="C37" s="39"/>
-      <c r="D37" s="38" t="s">
+      <c r="C37" s="32"/>
+      <c r="D37" s="31" t="s">
         <v>88</v>
       </c>
-      <c r="E37" s="40"/>
+      <c r="E37" s="33"/>
     </row>
   </sheetData>
   <mergeCells count="3">
@@ -1574,4 +1578,26 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="D4"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D5" sqref="D5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="4" max="4" width="18" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="4" spans="4:4" ht="39" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D4" s="41"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+</worksheet>
 </file>